--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_05_beg.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_05_beg.xlsx
@@ -876,23 +876,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Doctor, we’re pretty deep in the rainforest now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  It’s a lot more humid here, and the trees get way denser too.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Watch your footing. Don’t trip.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  There’s a tribe up ahead. Let’s go take a look.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  *Yawn*... It’s so boring here... I’m gonna take a nap...
+    <t xml:space="preserve">[name="Gavial"]  Doctor, we're pretty deep in the rainforest now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  It's a lot more humid here, and the trees get way denser too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Watch your footing. Don't trip.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  There's a tribe up ahead. Let's go take a look.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  *Yawn*... It's so boring here... I'm gonna take a nap...
 </t>
   </si>
   <si>
@@ -908,15 +908,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I gotta say, I thought Tomimi was pulling my leg when she said you’re a tribal leader now, but here you are.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  It wasn’t my decision. What can I do if they all want to follow me?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  So why didn’t you come to the ceremony?
+    <t xml:space="preserve">[name="Gavial"]  I gotta say, I thought Tomimi was pulling my leg when she said you're a tribal leader now, but here you are.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  It wasn't my decision. What can I do if they all want to follow me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  So why didn't you come to the ceremony?
 </t>
   </si>
   <si>
@@ -936,11 +936,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  The Doctor just doesn’t talk much.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  Yo! Gavial, you’ve got a pretty cheerful friend there. Just like you.
+    <t xml:space="preserve">[name="Gavial"]  The Doctor just doesn't talk much.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  Yo! Gavial, you've got a pretty cheerful friend there. Just like you.
 </t>
   </si>
   <si>
@@ -948,7 +948,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  Well, officially, I’m the Messenger for these parts here.
+    <t xml:space="preserve">[name="Inam"]  Well, officially, I'm the Messenger for these parts here.
 </t>
   </si>
   <si>
@@ -960,7 +960,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  Not like the boneheads here. Even if I told them, they wouldn’t have any idea what it actually means.
+    <t xml:space="preserve">[name="Inam"]  Not like the boneheads here. Even if I told them, they wouldn't have any idea what it actually means.
 </t>
   </si>
   <si>
@@ -968,7 +968,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  I’ve always been a Messenger...
+    <t xml:space="preserve">[name="Inam"]  I've always been a Messenger...
 </t>
   </si>
   <si>
@@ -976,7 +976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Huh? They don’t though?
+    <t xml:space="preserve">[name="Gavial"]  Huh? They don't though?
 </t>
   </si>
   <si>
@@ -1000,23 +1000,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Oh, you mean that one time? Both Zumama and I saw it. That’s also the day she started acting really strange.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  Oh yeah? Well, I don’t really know why they gave up on the idea. They probably had someone survey the area and realized the mine didn’t have much value at all.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  If they did park a city here, it’s gonna end up pretty far away from all the other ones.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  I heard this stretch of no man’s land used to be a pretty prosperous place. No idea how long ago, though.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  Well, whatever. Let’s talk about something else. I mean, I was like, uh...? How old was I again? Whatever, they sent me here after I became a Messenger.
+    <t xml:space="preserve">[name="Gavial"]  Oh, you mean that one time? Both Zumama and I saw it. That's also the day she started acting really strange.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  Oh yeah? Well, I don't really know why they gave up on the idea. They probably had someone survey the area and realized the mine didn't have much value at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  If they did park a city here, it's gonna end up pretty far away from all the other ones.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  I heard this stretch of no man's land used to be a pretty prosperous place. No idea how long ago, though.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  Well, whatever. Let's talk about something else. I mean, I was like, uh...? How old was I again? Whatever, they sent me here after I became a Messenger.
 </t>
   </si>
   <si>
@@ -1024,27 +1024,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  Sheesh, I don’t get to talk about this very often. Can’t you at least pretend to be a little interested?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Nope, sounds like a pain. But if you’re the Messenger here, how come I haven’t ever seen you leave this place?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  Of course you haven’t. You know how shut off we are? I’ve been outside to shop, but no one’s ever had anything for me to mail!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  From the day I became a Messenger to this very day, you’re the only person who’s still had contact with this place after you left!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  And since I’ve got absolutely nothing to do, I’ve been trading things I buy from nearby cities to make a quick buck.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  And before you know it, I’m everybody’s favorite shopkeeper, Inam.
+    <t xml:space="preserve">[name="Inam"]  Sheesh, I don't get to talk about this very often. Can't you at least pretend to be a little interested?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Nope, sounds like a pain. But if you're the Messenger here, how come I haven't ever seen you leave this place?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  Of course you haven't. You know how shut off we are? I've been outside to shop, but no one's ever had anything for me to mail!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  From the day I became a Messenger to this very day, you're the only person who's still had contact with this place after you left!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  And since I've got absolutely nothing to do, I've been trading things I buy from nearby cities to make a quick buck.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  And before you know it, I'm everybody's favorite shopkeeper, Inam.
 </t>
   </si>
   <si>
@@ -1052,7 +1052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  With how you used to be, I’d be more surprised if you did...
+    <t xml:space="preserve">[name="Inam"]  With how you used to be, I'd be more surprised if you did...
 </t>
   </si>
   <si>
@@ -1060,23 +1060,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  It’s simple and laidback. What’s not to like?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  You don’t really seem all that different from the other Liberi here, either.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  I’ll take that as a compliment. Anyway, what are you doing here?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Let me ask you this first. What was AUS doing here? You didn’t bring them here, did you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  AUS? Of course not. Even someone like me who hardly follows that kinda stuff knows about them. I don’t have that kind of pull.
+    <t xml:space="preserve">[name="Inam"]  It's simple and laidback. What's not to like?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  You don't really seem all that different from the other Liberi here, either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  I'll take that as a compliment. Anyway, what are you doing here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Let me ask you this first. What was AUS doing here? You didn't bring them here, did you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  AUS? Of course not. Even someone like me who hardly follows that kinda stuff knows about them. I don't have that kind of pull.
 </t>
   </si>
   <si>
@@ -1088,7 +1088,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  Oh, I could talk about them all day. You came at just the right time. I wasn’t even sure how to brag about this when nobody here knows who they are.
+    <t xml:space="preserve">[name="Inam"]  Oh, I could talk about them all day. You came at just the right time. I wasn't even sure how to brag about this when nobody here knows who they are.
 </t>
   </si>
   <si>
@@ -1096,15 +1096,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Eh, I’ll pass. I’m not a fan anyway. I just thought it was weird.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  Ugh, Gavial, you’ve been out there so long, but your taste is just as terrible as ever.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  You wanna get your ass whooped? Whatever. The Doctor and I are on our way to Zumama’s, and we figured we’d stop by and resupply here.
+    <t xml:space="preserve">[name="Gavial"]  Eh, I'll pass. I'm not a fan anyway. I just thought it was weird.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  Ugh, Gavial, you've been out there so long, but your taste is just as terrible as ever.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  You wanna get your ass whooped? Whatever. The Doctor and I are on our way to Zumama's, and we figured we'd stop by and resupply here.
 </t>
   </si>
   <si>
@@ -1124,7 +1124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Croissant? Yeah, she’s with us. We’ve been trying to find her. Have you seen her?
+    <t xml:space="preserve">[name="Gavial"]  Croissant? Yeah, she's with us. We've been trying to find her. Have you seen her?
 </t>
   </si>
   <si>
@@ -1136,19 +1136,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria B"]  Check out these ores passed down from my grandfather! Forge weapons sharper than anything you’ve ever seen!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="The market’s not half bad.;......;What a lively place.",values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  Haha, I was the one who taught them to peddle like that. It’s something, isn’t it?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  Look, there’s Croissant.
+    <t xml:space="preserve">[name="Archosauria B"]  Check out these ores passed down from my grandfather! Forge weapons sharper than anything you've ever seen!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="The market's not half bad.;......;What a lively place.",values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  Haha, I was the one who taught them to peddle like that. It's something, isn't it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  Look, there's Croissant.
 </t>
   </si>
   <si>
@@ -1172,7 +1172,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Croissant"]  Hooowee, that’s a hell of an ore! What a prize!
+    <t xml:space="preserve">[name="Croissant"]  Hooowee, that's a hell of an ore! What a prize!
 </t>
   </si>
   <si>
@@ -1180,7 +1180,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Croissant"]  Gavial, Baws! Finally! Took me ages to find y’all!
+    <t xml:space="preserve">[name="Croissant"]  Gavial, Baws! Finally! Took me ages to find y'all!
 </t>
   </si>
   <si>
@@ -1192,23 +1192,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Croissant"]  Ahaha. C’mon, Baws, why the face?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Croissant"]  I was fixin’ to have Inam here take me to that Temple to look fer y’all!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Croissant"]  Sure can’t, but it ain’t like you need talkin’ to do business!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  I came across her a couple days ago. I could tell she’s not from around here, so I brought her with me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  This girl really knows how to do business! She doesn’t speak their language, but she really knows how to speak the language of trade with my men here.
+    <t xml:space="preserve">[name="Croissant"]  Ahaha. C'mon, Baws, why the face?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  I was fixin' to have Inam here take me to that Temple to look fer y'all!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Sure can't, but it ain't like you need talkin' to do business!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  I came across her a couple days ago. I could tell she's not from around here, so I brought her with me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  This girl really knows how to do business! She doesn't speak their language, but she really knows how to speak the language of trade with my men here.
 </t>
   </si>
   <si>
@@ -1216,15 +1216,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Croissant"]  Naw, and I asked Inam, too, but she says she ain’t heard nothin’ about that either.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Alright, at least you’re alive and well. Now we just gotta find Utage and Blaze. I’m not too worried about Blaze. She jumped out the aircraft first, didn’t even think twice. As for Utage...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria"]  Inam, bad news. There’s a group of Archosauria charging towards us!
+    <t xml:space="preserve">[name="Croissant"]  Naw, and I asked Inam, too, but she says she ain't heard nothin' about that either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Alright, at least you're alive and well. Now we just gotta find Utage and Blaze. I'm not too worried about Blaze. She jumped out the aircraft first, didn't even think twice. As for Utage...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria"]  Inam, bad news. There's a group of Archosauria charging towards us!
 </t>
   </si>
   <si>
@@ -1232,7 +1232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria"]  Looks like the Great Wood Tribe! But they’re being led by some freak with a sword!
+    <t xml:space="preserve">[name="Archosauria"]  Looks like the Great Wood Tribe! But they're being led by some freak with a sword!
 </t>
   </si>
   <si>
@@ -1240,7 +1240,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="What’s that about?", values="1")]
+    <t xml:space="preserve">[Decision(options="What's that about?", values="1")]
 </t>
   </si>
   <si>
@@ -1248,27 +1248,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Croissant"]  Hold up, a freak carryin’ a blade... Damn dagnabbit, it’s gotta be Utage! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  Is she with you guys?  Tsk... In any case, it looks like they’re here already. Gavial, and you, with the hood, come help us!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Croissant"]  Oh, I’m comin’ with y’all!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  C’mon, dudes, let’s go!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  I mean, it’s not like any of you know what I’m saying, but show ‘em what you got~!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  Aha! I wasn’t sure about this at first, but it’s kinda fun taking these guys around to fight.
+    <t xml:space="preserve">[name="Croissant"]  Hold up, a freak carryin' a blade... Damn dagnabbit, it's gotta be Utage! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  Is she with you guys?  Tsk... In any case, it looks like they're here already. Gavial, and you, with the hood, come help us!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Oh, I'm comin' with y'all!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  C'mon, dudes, let's go!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  I mean, it's not like any of you know what I'm saying, but show 'em what you got~!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  Aha! I wasn't sure about this at first, but it's kinda fun taking these guys around to fight.
 </t>
   </si>
   <si>
@@ -1276,15 +1276,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Utage"]  Oh, it’s Gavial. Croissant and Doctor too! Heyas!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Who’s heying ya?! Why are you attacking the village, and where’d you get these guys?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  Huh? Is this your hometown? Alright, I’ll knock it off.
+    <t xml:space="preserve">[name="Utage"]  Oh, it's Gavial. Croissant and Doctor too! Heyas!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Who's heying ya?! Why are you attacking the village, and where'd you get these guys?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  Huh? Is this your hometown? Alright, I'll knock it off.
 </t>
   </si>
   <si>
@@ -1292,11 +1292,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Utage"]  Uh, but, you know, they don’t understand a word I say.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Tch... Looks like we’re out of options. Let’s take these idiots down.
+    <t xml:space="preserve">[name="Utage"]  Uh, but, you know, they don't understand a word I say.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Tch... Looks like we're out of options. Let's take these idiots down.
 </t>
   </si>
   <si>
